--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Slit2-Robo4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Slit2-Robo4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Robo4</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0278127990858216</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H2">
-        <v>0.0278127990858216</v>
+        <v>0.221624</v>
       </c>
       <c r="I2">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J2">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.2587303494116</v>
+        <v>39.00350066666667</v>
       </c>
       <c r="N2">
-        <v>32.2587303494116</v>
+        <v>117.010502</v>
       </c>
       <c r="O2">
-        <v>0.9942035944346669</v>
+        <v>0.98996865118361</v>
       </c>
       <c r="P2">
-        <v>0.9942035944346669</v>
+        <v>0.9899686511836098</v>
       </c>
       <c r="Q2">
-        <v>0.8972055859718804</v>
+        <v>2.881370610583111</v>
       </c>
       <c r="R2">
-        <v>0.8972055859718804</v>
+        <v>25.932335495248</v>
       </c>
       <c r="S2">
-        <v>0.009259880050675906</v>
+        <v>0.02306626873995101</v>
       </c>
       <c r="T2">
-        <v>0.009259880050675906</v>
+        <v>0.023066268739951</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0278127990858216</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H3">
-        <v>0.0278127990858216</v>
+        <v>0.221624</v>
       </c>
       <c r="I3">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J3">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.188074842189879</v>
+        <v>0.00545</v>
       </c>
       <c r="N3">
-        <v>0.188074842189879</v>
+        <v>0.01635</v>
       </c>
       <c r="O3">
-        <v>0.005796405565333139</v>
+        <v>0.0001383293565123925</v>
       </c>
       <c r="P3">
-        <v>0.005796405565333139</v>
+        <v>0.0001383293565123925</v>
       </c>
       <c r="Q3">
-        <v>0.005230887798924708</v>
+        <v>0.0004026169333333334</v>
       </c>
       <c r="R3">
-        <v>0.005230887798924708</v>
+        <v>0.0036235524</v>
       </c>
       <c r="S3">
-        <v>5.398695052050756E-05</v>
+        <v>3.223073890394889E-06</v>
       </c>
       <c r="T3">
-        <v>5.398695052050756E-05</v>
+        <v>3.223073890394889E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.44618154757366</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H4">
-        <v>2.44618154757366</v>
+        <v>0.221624</v>
       </c>
       <c r="I4">
-        <v>0.819169962885771</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J4">
-        <v>0.819169962885771</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>32.2587303494116</v>
+        <v>0.028296</v>
       </c>
       <c r="N4">
-        <v>32.2587303494116</v>
+        <v>0.08488800000000001</v>
       </c>
       <c r="O4">
-        <v>0.9942035944346669</v>
+        <v>0.0007181958663990202</v>
       </c>
       <c r="P4">
-        <v>0.9942035944346669</v>
+        <v>0.0007181958663990201</v>
       </c>
       <c r="Q4">
-        <v>78.91071092888505</v>
+        <v>0.002090357568</v>
       </c>
       <c r="R4">
-        <v>78.91071092888505</v>
+        <v>0.018813218112</v>
       </c>
       <c r="S4">
-        <v>0.8144217215539462</v>
+        <v>1.67339630830484E-05</v>
       </c>
       <c r="T4">
-        <v>0.8144217215539462</v>
+        <v>1.67339630830484E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.44618154757366</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H5">
-        <v>2.44618154757366</v>
+        <v>0.221624</v>
       </c>
       <c r="I5">
-        <v>0.819169962885771</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J5">
-        <v>0.819169962885771</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.188074842189879</v>
+        <v>0.07360899999999999</v>
       </c>
       <c r="N5">
-        <v>0.188074842189879</v>
+        <v>0.220827</v>
       </c>
       <c r="O5">
-        <v>0.005796405565333139</v>
+        <v>0.00186830928504967</v>
       </c>
       <c r="P5">
-        <v>0.005796405565333139</v>
+        <v>0.00186830928504967</v>
       </c>
       <c r="Q5">
-        <v>0.46006520852771</v>
+        <v>0.005437840338666667</v>
       </c>
       <c r="R5">
-        <v>0.46006520852771</v>
+        <v>0.048940563048</v>
       </c>
       <c r="S5">
-        <v>0.004748241331824824</v>
+        <v>4.353160477028944E-05</v>
       </c>
       <c r="T5">
-        <v>0.004748241331824824</v>
+        <v>4.353160477028943E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5121766049172271</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H6">
-        <v>0.5121766049172271</v>
+        <v>0.221624</v>
       </c>
       <c r="I6">
-        <v>0.1715161701130326</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J6">
-        <v>0.1715161701130326</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.2587303494116</v>
+        <v>0.2878673333333333</v>
       </c>
       <c r="N6">
-        <v>32.2587303494116</v>
+        <v>0.863602</v>
       </c>
       <c r="O6">
-        <v>0.9942035944346669</v>
+        <v>0.007306514308429066</v>
       </c>
       <c r="P6">
-        <v>0.9942035944346669</v>
+        <v>0.007306514308429065</v>
       </c>
       <c r="Q6">
-        <v>16.52216698930195</v>
+        <v>0.02126610329422222</v>
       </c>
       <c r="R6">
-        <v>16.52216698930195</v>
+        <v>0.191394929648</v>
       </c>
       <c r="S6">
-        <v>0.1705219928300447</v>
+        <v>0.0001702417772411503</v>
       </c>
       <c r="T6">
-        <v>0.1705219928300447</v>
+        <v>0.0001702417772411503</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.538883</v>
+      </c>
+      <c r="H7">
+        <v>7.616649</v>
+      </c>
+      <c r="I7">
+        <v>0.8007612681564715</v>
+      </c>
+      <c r="J7">
+        <v>0.8007612681564716</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>39.00350066666667</v>
+      </c>
+      <c r="N7">
+        <v>117.010502</v>
+      </c>
+      <c r="O7">
+        <v>0.98996865118361</v>
+      </c>
+      <c r="P7">
+        <v>0.9899686511836098</v>
+      </c>
+      <c r="Q7">
+        <v>99.02532478308866</v>
+      </c>
+      <c r="R7">
+        <v>891.227923047798</v>
+      </c>
+      <c r="S7">
+        <v>0.7927285525569392</v>
+      </c>
+      <c r="T7">
+        <v>0.7927285525569391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.538883</v>
+      </c>
+      <c r="H8">
+        <v>7.616649</v>
+      </c>
+      <c r="I8">
+        <v>0.8007612681564715</v>
+      </c>
+      <c r="J8">
+        <v>0.8007612681564716</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.00545</v>
+      </c>
+      <c r="N8">
+        <v>0.01635</v>
+      </c>
+      <c r="O8">
+        <v>0.0001383293565123925</v>
+      </c>
+      <c r="P8">
+        <v>0.0001383293565123925</v>
+      </c>
+      <c r="Q8">
+        <v>0.01383691235</v>
+      </c>
+      <c r="R8">
+        <v>0.12453221115</v>
+      </c>
+      <c r="S8">
+        <v>0.0001107687909441321</v>
+      </c>
+      <c r="T8">
+        <v>0.0001107687909441321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.538883</v>
+      </c>
+      <c r="H9">
+        <v>7.616649</v>
+      </c>
+      <c r="I9">
+        <v>0.8007612681564715</v>
+      </c>
+      <c r="J9">
+        <v>0.8007612681564716</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.028296</v>
+      </c>
+      <c r="N9">
+        <v>0.08488800000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.0007181958663990202</v>
+      </c>
+      <c r="P9">
+        <v>0.0007181958663990201</v>
+      </c>
+      <c r="Q9">
+        <v>0.07184023336799999</v>
+      </c>
+      <c r="R9">
+        <v>0.646562100312</v>
+      </c>
+      <c r="S9">
+        <v>0.0005751034327624152</v>
+      </c>
+      <c r="T9">
+        <v>0.0005751034327624152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.538883</v>
+      </c>
+      <c r="H10">
+        <v>7.616649</v>
+      </c>
+      <c r="I10">
+        <v>0.8007612681564715</v>
+      </c>
+      <c r="J10">
+        <v>0.8007612681564716</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.07360899999999999</v>
+      </c>
+      <c r="N10">
+        <v>0.220827</v>
+      </c>
+      <c r="O10">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="P10">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="Q10">
+        <v>0.186884638747</v>
+      </c>
+      <c r="R10">
+        <v>1.681961748723</v>
+      </c>
+      <c r="S10">
+        <v>0.001496069712404885</v>
+      </c>
+      <c r="T10">
+        <v>0.001496069712404885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.538883</v>
+      </c>
+      <c r="H11">
+        <v>7.616649</v>
+      </c>
+      <c r="I11">
+        <v>0.8007612681564715</v>
+      </c>
+      <c r="J11">
+        <v>0.8007612681564716</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2878673333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.863602</v>
+      </c>
+      <c r="O11">
+        <v>0.007306514308429066</v>
+      </c>
+      <c r="P11">
+        <v>0.007306514308429065</v>
+      </c>
+      <c r="Q11">
+        <v>0.7308614788553333</v>
+      </c>
+      <c r="R11">
+        <v>6.577753309698</v>
+      </c>
+      <c r="S11">
+        <v>0.005850773663421064</v>
+      </c>
+      <c r="T11">
+        <v>0.005850773663421064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.5121766049172271</v>
-      </c>
-      <c r="H7">
-        <v>0.5121766049172271</v>
-      </c>
-      <c r="I7">
-        <v>0.1715161701130326</v>
-      </c>
-      <c r="J7">
-        <v>0.1715161701130326</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.188074842189879</v>
-      </c>
-      <c r="N7">
-        <v>0.188074842189879</v>
-      </c>
-      <c r="O7">
-        <v>0.005796405565333139</v>
-      </c>
-      <c r="P7">
-        <v>0.005796405565333139</v>
-      </c>
-      <c r="Q7">
-        <v>0.09632753414315548</v>
-      </c>
-      <c r="R7">
-        <v>0.09632753414315548</v>
-      </c>
-      <c r="S7">
-        <v>0.0009941772829878072</v>
-      </c>
-      <c r="T7">
-        <v>0.0009941772829878072</v>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>2.5E-05</v>
+      </c>
+      <c r="H12">
+        <v>7.499999999999999E-05</v>
+      </c>
+      <c r="I12">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="J12">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>39.00350066666667</v>
+      </c>
+      <c r="N12">
+        <v>117.010502</v>
+      </c>
+      <c r="O12">
+        <v>0.98996865118361</v>
+      </c>
+      <c r="P12">
+        <v>0.9899686511836098</v>
+      </c>
+      <c r="Q12">
+        <v>0.0009750875166666666</v>
+      </c>
+      <c r="R12">
+        <v>0.00877578765</v>
+      </c>
+      <c r="S12">
+        <v>7.805879126341576E-06</v>
+      </c>
+      <c r="T12">
+        <v>7.805879126341574E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>2.5E-05</v>
+      </c>
+      <c r="H13">
+        <v>7.499999999999999E-05</v>
+      </c>
+      <c r="I13">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="J13">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.00545</v>
+      </c>
+      <c r="N13">
+        <v>0.01635</v>
+      </c>
+      <c r="O13">
+        <v>0.0001383293565123925</v>
+      </c>
+      <c r="P13">
+        <v>0.0001383293565123925</v>
+      </c>
+      <c r="Q13">
+        <v>1.3625E-07</v>
+      </c>
+      <c r="R13">
+        <v>1.22625E-06</v>
+      </c>
+      <c r="S13">
+        <v>1.090723666117463E-09</v>
+      </c>
+      <c r="T13">
+        <v>1.090723666117463E-09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>2.5E-05</v>
+      </c>
+      <c r="H14">
+        <v>7.499999999999999E-05</v>
+      </c>
+      <c r="I14">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="J14">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.028296</v>
+      </c>
+      <c r="N14">
+        <v>0.08488800000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.0007181958663990202</v>
+      </c>
+      <c r="P14">
+        <v>0.0007181958663990201</v>
+      </c>
+      <c r="Q14">
+        <v>7.074E-07</v>
+      </c>
+      <c r="R14">
+        <v>6.3666E-06</v>
+      </c>
+      <c r="S14">
+        <v>5.66295722136876E-09</v>
+      </c>
+      <c r="T14">
+        <v>5.662957221368759E-09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>2.5E-05</v>
+      </c>
+      <c r="H15">
+        <v>7.499999999999999E-05</v>
+      </c>
+      <c r="I15">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="J15">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.07360899999999999</v>
+      </c>
+      <c r="N15">
+        <v>0.220827</v>
+      </c>
+      <c r="O15">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="P15">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="Q15">
+        <v>1.840225E-06</v>
+      </c>
+      <c r="R15">
+        <v>1.6562025E-05</v>
+      </c>
+      <c r="S15">
+        <v>1.473157400720006E-08</v>
+      </c>
+      <c r="T15">
+        <v>1.473157400720006E-08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>2.5E-05</v>
+      </c>
+      <c r="H16">
+        <v>7.499999999999999E-05</v>
+      </c>
+      <c r="I16">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="J16">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2878673333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.863602</v>
+      </c>
+      <c r="O16">
+        <v>0.007306514308429066</v>
+      </c>
+      <c r="P16">
+        <v>0.007306514308429065</v>
+      </c>
+      <c r="Q16">
+        <v>7.196683333333332E-06</v>
+      </c>
+      <c r="R16">
+        <v>6.477014999999999E-05</v>
+      </c>
+      <c r="S16">
+        <v>5.761169048968645E-08</v>
+      </c>
+      <c r="T16">
+        <v>5.761169048968644E-08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.557804</v>
+      </c>
+      <c r="H17">
+        <v>1.673412</v>
+      </c>
+      <c r="I17">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J17">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>39.00350066666667</v>
+      </c>
+      <c r="N17">
+        <v>117.010502</v>
+      </c>
+      <c r="O17">
+        <v>0.98996865118361</v>
+      </c>
+      <c r="P17">
+        <v>0.9899686511836098</v>
+      </c>
+      <c r="Q17">
+        <v>21.75630868586933</v>
+      </c>
+      <c r="R17">
+        <v>195.806778172824</v>
+      </c>
+      <c r="S17">
+        <v>0.1741660240075935</v>
+      </c>
+      <c r="T17">
+        <v>0.1741660240075934</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.557804</v>
+      </c>
+      <c r="H18">
+        <v>1.673412</v>
+      </c>
+      <c r="I18">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J18">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.00545</v>
+      </c>
+      <c r="N18">
+        <v>0.01635</v>
+      </c>
+      <c r="O18">
+        <v>0.0001383293565123925</v>
+      </c>
+      <c r="P18">
+        <v>0.0001383293565123925</v>
+      </c>
+      <c r="Q18">
+        <v>0.0030400318</v>
+      </c>
+      <c r="R18">
+        <v>0.0273602862</v>
+      </c>
+      <c r="S18">
+        <v>2.433640095419942E-05</v>
+      </c>
+      <c r="T18">
+        <v>2.433640095419941E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.557804</v>
+      </c>
+      <c r="H19">
+        <v>1.673412</v>
+      </c>
+      <c r="I19">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J19">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.028296</v>
+      </c>
+      <c r="N19">
+        <v>0.08488800000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.0007181958663990202</v>
+      </c>
+      <c r="P19">
+        <v>0.0007181958663990201</v>
+      </c>
+      <c r="Q19">
+        <v>0.015783621984</v>
+      </c>
+      <c r="R19">
+        <v>0.142052597856</v>
+      </c>
+      <c r="S19">
+        <v>0.0001263528075963352</v>
+      </c>
+      <c r="T19">
+        <v>0.0001263528075963352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.557804</v>
+      </c>
+      <c r="H20">
+        <v>1.673412</v>
+      </c>
+      <c r="I20">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J20">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.07360899999999999</v>
+      </c>
+      <c r="N20">
+        <v>0.220827</v>
+      </c>
+      <c r="O20">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="P20">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="Q20">
+        <v>0.04105939463599999</v>
+      </c>
+      <c r="R20">
+        <v>0.369534551724</v>
+      </c>
+      <c r="S20">
+        <v>0.000328693236300489</v>
+      </c>
+      <c r="T20">
+        <v>0.000328693236300489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.557804</v>
+      </c>
+      <c r="H21">
+        <v>1.673412</v>
+      </c>
+      <c r="I21">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J21">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2878673333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.863602</v>
+      </c>
+      <c r="O21">
+        <v>0.007306514308429066</v>
+      </c>
+      <c r="P21">
+        <v>0.007306514308429065</v>
+      </c>
+      <c r="Q21">
+        <v>0.1605735500026667</v>
+      </c>
+      <c r="R21">
+        <v>1.445161950024</v>
+      </c>
+      <c r="S21">
+        <v>0.001285441256076362</v>
+      </c>
+      <c r="T21">
+        <v>0.001285441256076362</v>
       </c>
     </row>
   </sheetData>
